--- a/RLD.xlsx
+++ b/RLD.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1575,21 +1575,68 @@
         <v>19</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>19</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
